--- a/build/web/file/902209003178999.xlsx
+++ b/build/web/file/902209003178999.xlsx
@@ -246,8 +246,8 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2"/>
-      <c r="M2" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" t="s" s="1">
         <v>19</v>
       </c>
     </row>
@@ -275,8 +275,8 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3"/>
-      <c r="M3" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" t="s" s="1">
         <v>19</v>
       </c>
     </row>
@@ -304,8 +304,8 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4"/>
-      <c r="M4" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" t="s" s="1">
         <v>19</v>
       </c>
     </row>
@@ -333,8 +333,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5"/>
-      <c r="M5" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" t="s" s="1">
         <v>19</v>
       </c>
     </row>

--- a/build/web/file/902209003178999.xlsx
+++ b/build/web/file/902209003178999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>ม้วนที่</t>
   </si>
@@ -53,27 +53,75 @@
     <t>Mark</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>90BKL0174-RB65</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>KI-999/99</t>
+  </si>
+  <si>
+    <t>9002200015839</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9002200015840</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9002200015841</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9002200015842</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9002200015843</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9002200015844</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>90BKL0174-RB65</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>KI-999/99</t>
-  </si>
-  <si>
     <t>9002200015845</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -87,9 +135,6 @@
   </si>
   <si>
     <t>9002200015847</t>
-  </si>
-  <si>
-    <t>52</t>
   </si>
   <si>
     <t>10</t>
@@ -169,7 +214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,6 +224,12 @@
     <col min="3" max="3" width="8.51171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.01171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.51171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.01171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.01171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.12109375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -297,7 +348,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -311,22 +362,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="1">
+      <c r="F5" t="s" s="1">
         <v>27</v>
-      </c>
-      <c r="F5" t="s" s="1">
-        <v>25</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -338,6 +389,180 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/build/web/file/902209003178999.xlsx
+++ b/build/web/file/902209003178999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>ม้วนที่</t>
   </si>
@@ -50,6 +50,9 @@
     <t>ตำหนิรวม</t>
   </si>
   <si>
+    <t>คะเเนน</t>
+  </si>
+  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -71,22 +74,40 @@
     <t>50</t>
   </si>
   <si>
+    <t>PakutSing</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9002200015840</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>7.36</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9002200015841</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9002200015840</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9002200015841</t>
   </si>
   <si>
     <t>4</t>
@@ -214,12 +235,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" max="1" width="11.51171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.01171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.51171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.01171875" customWidth="true" bestFit="true"/>
@@ -227,9 +249,11 @@
     <col min="6" max="6" width="19.01171875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="18.34375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.01171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.12109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.12109375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="11.12109375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="14.51171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="10.01171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="5.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -272,83 +296,100 @@
       <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" t="s" s="1">
+        <v>20</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" t="s" s="1">
+        <v>21</v>
+      </c>
       <c r="M2" t="s" s="1">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="N2" t="s" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="M3" t="s" s="1">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="N3" t="s" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -356,28 +397,29 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" t="s" s="1">
-        <v>19</v>
+      <c r="M4" s="1"/>
+      <c r="N4" t="s" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -385,28 +427,29 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" t="s" s="1">
-        <v>19</v>
+      <c r="M5" s="1"/>
+      <c r="N5" t="s" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -414,28 +457,29 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" t="s" s="1">
-        <v>19</v>
+      <c r="M6" s="1"/>
+      <c r="N6" t="s" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -443,28 +487,29 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" t="s" s="1">
-        <v>19</v>
+      <c r="M7" s="1"/>
+      <c r="N7" t="s" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -472,28 +517,29 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" t="s" s="1">
-        <v>19</v>
+      <c r="M8" s="1"/>
+      <c r="N8" t="s" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -501,28 +547,29 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" t="s" s="1">
-        <v>19</v>
+      <c r="M9" s="1"/>
+      <c r="N9" t="s" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -530,28 +577,29 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" t="s" s="1">
-        <v>19</v>
+      <c r="M10" s="1"/>
+      <c r="N10" t="s" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -559,8 +607,9 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" t="s" s="1">
-        <v>19</v>
+      <c r="M11" s="1"/>
+      <c r="N11" t="s" s="1">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/build/web/file/902209003178999.xlsx
+++ b/build/web/file/902209003178999.xlsx
@@ -12,21 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
   <si>
     <t>ม้วนที่</t>
   </si>
   <si>
+    <t>บาร์โค๊ดร้านค้า</t>
+  </si>
+  <si>
+    <t>หม้อย้อม</t>
+  </si>
+  <si>
     <t>รหัสวัตถุดิบ</t>
   </si>
   <si>
     <t>พาเลต</t>
   </si>
   <si>
-    <t>หม้อย้อม</t>
-  </si>
-  <si>
-    <t>บาร์โค๊ดร้านค้า</t>
+    <t>บาร์โค๊ด</t>
+  </si>
+  <si>
+    <t>หน้าผ้าที่วัดได้</t>
   </si>
   <si>
     <t>จำนวนนับได้</t>
@@ -59,28 +65,43 @@
     <t>1</t>
   </si>
   <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>KI-999/99</t>
+  </si>
+  <si>
     <t>90BKL0174-RB65</t>
   </si>
   <si>
     <t>999</t>
   </si>
   <si>
-    <t>KI-999/99</t>
-  </si>
-  <si>
     <t>9002200015839</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
+    <t>34.08</t>
+  </si>
+  <si>
     <t>PakutSing</t>
   </si>
   <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>ใช้ผลิตได้</t>
+  </si>
+  <si>
+    <t>ยกเว้นม้วนที่ 1 รอสรุป</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>22.00</t>
   </si>
   <si>
     <t>*</t>
@@ -92,21 +113,33 @@
     <t>9002200015840</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
+    <t>Khanisa</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>7.36</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>9002200015841</t>
   </si>
   <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -116,7 +149,16 @@
     <t>9002200015842</t>
   </si>
   <si>
-    <t>49</t>
+    <t>175</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6.40</t>
   </si>
   <si>
     <t>5</t>
@@ -125,37 +167,43 @@
     <t>9002200015843</t>
   </si>
   <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>8.16</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9002200015844</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9002200015845</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>9002200015846</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>9002200015847</t>
+  </si>
+  <si>
     <t>52</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9002200015844</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9002200015845</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9002200015846</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>9002200015847</t>
   </si>
   <si>
     <t>10</t>
@@ -235,25 +283,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.51171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.01171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.51171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.01171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.51171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="19.01171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.34375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.01171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.12109375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.12109375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="14.51171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="10.01171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="5.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.51171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.01171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.01171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.51171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.53125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="19.01171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="16.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="24.33203125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.12109375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="14.51171875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="10.01171875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="5.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -299,317 +349,433 @@
       <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>22</v>
+      </c>
       <c r="H2" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="I2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s" s="1">
+        <v>26</v>
+      </c>
       <c r="L2" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s" s="1">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="M2" s="1"/>
       <c r="N2" t="s" s="1">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>15</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="G3" t="s" s="1">
+        <v>33</v>
+      </c>
       <c r="H3" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="I3" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s" s="1">
+        <v>26</v>
+      </c>
       <c r="L3" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="M3" t="s" s="1">
-        <v>28</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" t="s" s="1">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="O3" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>15</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="s" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" t="s" s="1">
         <v>31</v>
       </c>
+      <c r="O4" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>15</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="s" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" t="s" s="1">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="O5" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="K6" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" t="s" s="1">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="O6" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>15</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" t="s" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s" s="1">
+        <v>24</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="K7" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="M7" s="1"/>
-      <c r="N7" t="s" s="1">
-        <v>31</v>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" t="s" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>15</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="s" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" t="s" s="1">
         <v>42</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" t="s" s="1">
-        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>15</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" t="s" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s" s="1">
+        <v>24</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="K9" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="M9" s="1"/>
-      <c r="N9" t="s" s="1">
-        <v>31</v>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" t="s" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>15</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" t="s" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s" s="1">
+        <v>24</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="M10" s="1"/>
-      <c r="N10" t="s" s="1">
-        <v>31</v>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" t="s" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s" s="1">
-        <v>15</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" t="s" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s" s="1">
+        <v>24</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="K11" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="M11" s="1"/>
-      <c r="N11" t="s" s="1">
-        <v>31</v>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" t="s" s="1">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/build/web/file/902209003178999.xlsx
+++ b/build/web/file/902209003178999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
   <si>
     <t>ม้วนที่</t>
   </si>
@@ -65,9 +65,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>1234567891</t>
-  </si>
-  <si>
     <t>KI-999/99</t>
   </si>
   <si>
@@ -80,85 +77,85 @@
     <t>9002200015839</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>34.08</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>12.33</t>
   </si>
   <si>
     <t>PakutSing</t>
   </si>
   <si>
-    <t>ใช้ผลิตได้</t>
-  </si>
-  <si>
-    <t>ยกเว้นม้วนที่ 1 รอสรุป</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ฟหกฟหก</t>
+  </si>
+  <si>
+    <t>ปปปป</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>123456879</t>
+  </si>
+  <si>
+    <t>9002200015840</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5.04</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>9002200015841</t>
+  </si>
+  <si>
+    <t>178</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>22.00</t>
+    <t>30.80</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9002200015840</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Khanisa</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>7.36</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9002200015841</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>9002200015842</t>
   </si>
   <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6.40</t>
+    <t>23</t>
   </si>
   <si>
     <t>5</t>
@@ -167,13 +164,7 @@
     <t>9002200015843</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>8.16</t>
+    <t>48</t>
   </si>
   <si>
     <t>6</t>
@@ -182,34 +173,34 @@
     <t>9002200015844</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
     <t>9002200015845</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>9002200015846</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>9002200015847</t>
   </si>
   <si>
-    <t>52</t>
+    <t>89</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
     <t>9002200015848</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
 </sst>
 </file>
@@ -298,8 +289,8 @@
     <col min="7" max="7" width="25.01171875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="19.01171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="16.01171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="24.33203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.12109375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.12109375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="11.12109375" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="14.51171875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="10.01171875" customWidth="true" bestFit="true"/>
@@ -360,40 +351,40 @@
       <c r="A2" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="1">
-        <v>17</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="1">
+      <c r="G2" t="s" s="1">
         <v>21</v>
       </c>
-      <c r="G2" t="s" s="1">
+      <c r="H2" t="s" s="1">
         <v>22</v>
       </c>
-      <c r="H2" t="s" s="1">
-        <v>23</v>
-      </c>
       <c r="I2" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="J2" t="s" s="1">
-        <v>25</v>
-      </c>
       <c r="K2" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="M2" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="N2" t="s" s="1">
         <v>28</v>
       </c>
@@ -408,38 +399,42 @@
       <c r="A3" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" t="s" s="1">
+        <v>32</v>
+      </c>
       <c r="C3" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="J3" t="s" s="1">
-        <v>35</v>
-      </c>
       <c r="K3" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="M3" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="N3" t="s" s="1">
         <v>36</v>
       </c>
@@ -454,328 +449,330 @@
       <c r="A4" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" t="s" s="1">
+        <v>39</v>
+      </c>
       <c r="C4" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="J4" t="s" s="1">
-        <v>35</v>
-      </c>
       <c r="K4" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="M4" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="N4" t="s" s="1">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s" s="1">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s" s="1">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="K5" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s" s="1">
-        <v>48</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M5" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" t="s" s="1">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="G6" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s" s="1">
-        <v>52</v>
-      </c>
       <c r="I6" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s" s="1">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s" s="1">
-        <v>53</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M6" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" t="s" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s" s="1">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="M7" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" t="s" s="1">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" t="s" s="1">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="M8" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" t="s" s="1">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" t="s" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M9" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="M9" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" t="s" s="1">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="M10" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" t="s" s="1">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="M11" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="M11" t="s" s="1">
+        <v>27</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" t="s" s="1">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/build/web/file/902209003178999.xlsx
+++ b/build/web/file/902209003178999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="63">
   <si>
     <t>ม้วนที่</t>
   </si>
@@ -62,6 +62,9 @@
     <t>Mark</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>5.64</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2</t>
@@ -349,50 +349,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>32</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>33</v>
@@ -421,19 +421,19 @@
         <v>35</v>
       </c>
       <c r="I3" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s" s="1">
         <v>36</v>
@@ -442,7 +442,7 @@
         <v>37</v>
       </c>
       <c r="P3" t="s" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -453,13 +453,13 @@
         <v>39</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="1">
         <v>40</v>
@@ -468,22 +468,22 @@
         <v>41</v>
       </c>
       <c r="H4" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s" s="1">
         <v>42</v>
@@ -501,13 +501,13 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s" s="1">
         <v>46</v>
@@ -517,22 +517,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" t="s" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s" s="1">
         <v>49</v>
@@ -557,22 +557,22 @@
         <v>50</v>
       </c>
       <c r="I6" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" t="s" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -581,13 +581,13 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s" s="1">
         <v>52</v>
@@ -597,22 +597,22 @@
         <v>53</v>
       </c>
       <c r="I7" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" t="s" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -621,13 +621,13 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s" s="1">
         <v>55</v>
@@ -637,37 +637,37 @@
         <v>50</v>
       </c>
       <c r="I8" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" t="s" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s" s="1">
         <v>56</v>
@@ -677,22 +677,22 @@
         <v>35</v>
       </c>
       <c r="I9" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" t="s" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -701,13 +701,13 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s" s="1">
         <v>58</v>
@@ -717,22 +717,22 @@
         <v>59</v>
       </c>
       <c r="I10" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" t="s" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -741,13 +741,13 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s" s="1">
         <v>61</v>
@@ -757,22 +757,22 @@
         <v>62</v>
       </c>
       <c r="I11" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" t="s" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
